--- a/Elecciones 11 Abril 2021/candidaturas ligth/Gobernadores ligth 01 abril.xlsx
+++ b/Elecciones 11 Abril 2021/candidaturas ligth/Gobernadores ligth 01 abril.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\candidaturas ligth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ELECCIONES\Elecciones 11 Abril 2021\candidaturas ligth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAFBBF6-EDC4-48D8-BE97-233472F09762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B644A921-1EC2-44D1-82E1-43F48060E1E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CC5EB279-2D8D-4033-8AA5-F129450871C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CC5EB279-2D8D-4033-8AA5-F129450871C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="510">
   <si>
     <t>Región</t>
   </si>
@@ -1543,6 +1534,27 @@
   </si>
   <si>
     <t>Candidato/a</t>
+  </si>
+  <si>
+    <t>Tendencia</t>
+  </si>
+  <si>
+    <t>Derecha</t>
+  </si>
+  <si>
+    <t>Centro-Derecha</t>
+  </si>
+  <si>
+    <t>Centro-Izquierda</t>
+  </si>
+  <si>
+    <t>Izquierda</t>
+  </si>
+  <si>
+    <t>Regionalista</t>
+  </si>
+  <si>
+    <t>Verde</t>
   </si>
 </sst>
 </file>
@@ -1595,6 +1607,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3194567F-6FE7-4444-9B83-BB4ADA6D8A11}" name="Tabla1" displayName="Tabla1" ref="A1:L91" totalsRowShown="0">
+  <autoFilter ref="A1:L91" xr:uid="{D718865F-A050-4F6A-9BC4-95458E91B3D7}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{D522F3B7-B8C8-422E-A5B2-EDB4254D4708}" name="Región"/>
+    <tableColumn id="2" xr3:uid="{2BF74897-F850-4790-8AE1-CEFB9D656332}" name="Lista"/>
+    <tableColumn id="3" xr3:uid="{FC03994A-186A-4966-8D2F-BF49BB1A417E}" name="Sub Pacto"/>
+    <tableColumn id="4" xr3:uid="{EF3C5A44-8F4C-41B4-BB02-E99297D97F1C}" name="Sigla Partido"/>
+    <tableColumn id="5" xr3:uid="{0291E70A-56C7-436E-B11A-D80B9EF67E7D}" name="Partido"/>
+    <tableColumn id="13" xr3:uid="{5358E621-09E7-46ED-9190-5116CFC39EEC}" name="Tendencia"/>
+    <tableColumn id="6" xr3:uid="{8F6E3EF4-AD54-4AF6-A624-D6AB5C82FB47}" name="Candidato/a"/>
+    <tableColumn id="7" xr3:uid="{88647070-1323-4A07-81C9-C45802CCAB28}" name="Facebook"/>
+    <tableColumn id="8" xr3:uid="{E379670E-B3B8-4A7A-90DE-B031C742700A}" name="Instagram"/>
+    <tableColumn id="9" xr3:uid="{0F747901-2874-477E-9E6C-CCE83EA35225}" name="Twitter"/>
+    <tableColumn id="10" xr3:uid="{1504A748-BC5B-4F3B-894A-45A2213F7F57}" name="Link Imágenes Github"/>
+    <tableColumn id="11" xr3:uid="{8ADBBA33-3A1B-4D7C-833A-E00DB222325C}" name="Imagen Partido"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1894,22 +1927,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FABE50D-1301-46F2-A149-3BAF5B1CAE17}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1926,25 +1963,28 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G1" t="s">
         <v>502</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1961,25 +2001,28 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G2" t="s">
         <v>412</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1996,25 +2039,28 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G3" t="s">
         <v>413</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2031,25 +2077,28 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G4" t="s">
         <v>414</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2066,25 +2115,28 @@
         <v>40</v>
       </c>
       <c r="F5" t="s">
+        <v>508</v>
+      </c>
+      <c r="G5" t="s">
         <v>415</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2101,25 +2153,28 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
+        <v>508</v>
+      </c>
+      <c r="G6" t="s">
         <v>416</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2136,25 +2191,28 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G7" t="s">
         <v>417</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>49</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2171,25 +2229,28 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G8" t="s">
         <v>418</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>54</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2206,25 +2267,28 @@
         <v>40</v>
       </c>
       <c r="F9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G9" t="s">
         <v>419</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>59</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>56</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2241,25 +2305,28 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
+        <v>508</v>
+      </c>
+      <c r="G10" t="s">
         <v>420</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>62</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>45</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2276,25 +2343,28 @@
         <v>64</v>
       </c>
       <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
         <v>421</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>66</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>68</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>65</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2311,25 +2381,28 @@
         <v>64</v>
       </c>
       <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
         <v>422</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>72</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>73</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>74</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>71</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2346,25 +2419,28 @@
         <v>64</v>
       </c>
       <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
         <v>423</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>76</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>77</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>78</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>75</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2381,25 +2457,28 @@
         <v>64</v>
       </c>
       <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
         <v>424</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>81</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>82</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>83</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>80</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2416,25 +2495,28 @@
         <v>64</v>
       </c>
       <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
         <v>425</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>85</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>86</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>87</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>84</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -2451,25 +2533,28 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
         <v>426</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>91</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>92</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>45</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>90</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -2486,25 +2571,28 @@
         <v>64</v>
       </c>
       <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
         <v>427</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>95</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>96</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>97</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>94</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2521,25 +2609,28 @@
         <v>64</v>
       </c>
       <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
         <v>428</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>100</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>101</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>45</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>99</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -2556,25 +2647,28 @@
         <v>64</v>
       </c>
       <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
         <v>429</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>103</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>104</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>105</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>102</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -2591,25 +2685,28 @@
         <v>64</v>
       </c>
       <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
         <v>430</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>107</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>108</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>45</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>106</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2626,25 +2723,28 @@
         <v>64</v>
       </c>
       <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
         <v>431</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>100</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>110</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>111</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>109</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2661,25 +2761,28 @@
         <v>64</v>
       </c>
       <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
         <v>432</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>113</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>114</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>115</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>112</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2696,25 +2799,28 @@
         <v>64</v>
       </c>
       <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
         <v>433</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>117</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>118</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>45</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>116</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -2731,25 +2837,28 @@
         <v>64</v>
       </c>
       <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" t="s">
         <v>434</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>121</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>122</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>123</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>120</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2766,25 +2875,28 @@
         <v>64</v>
       </c>
       <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="s">
         <v>435</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>125</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>126</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>127</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>124</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2801,25 +2913,28 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" t="s">
         <v>436</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>129</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>101</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>130</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>128</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2836,25 +2951,28 @@
         <v>64</v>
       </c>
       <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" t="s">
         <v>437</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>133</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>134</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>135</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>132</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2871,25 +2989,28 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
         <v>438</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>138</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>139</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>140</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>137</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -2906,25 +3027,28 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" t="s">
         <v>439</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>100</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>101</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>45</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>142</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -2941,25 +3065,28 @@
         <v>64</v>
       </c>
       <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
         <v>440</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>100</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>101</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>45</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>145</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -2976,25 +3103,28 @@
         <v>64</v>
       </c>
       <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
         <v>441</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>147</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>101</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>148</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>146</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -3011,25 +3141,28 @@
         <v>64</v>
       </c>
       <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
         <v>442</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>150</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>101</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>151</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>149</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -3046,25 +3179,28 @@
         <v>64</v>
       </c>
       <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
         <v>443</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>153</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>154</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>155</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>152</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>156</v>
       </c>
@@ -3081,25 +3217,28 @@
         <v>64</v>
       </c>
       <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" t="s">
         <v>444</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>158</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>159</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>160</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>157</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -3116,25 +3255,28 @@
         <v>64</v>
       </c>
       <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
         <v>445</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>163</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>164</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>165</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>162</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -3151,25 +3293,28 @@
         <v>64</v>
       </c>
       <c r="F36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" t="s">
         <v>446</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>167</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>168</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>165</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>166</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -3186,25 +3331,28 @@
         <v>64</v>
       </c>
       <c r="F37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" t="s">
         <v>447</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>170</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>171</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>165</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>169</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -3221,25 +3369,28 @@
         <v>64</v>
       </c>
       <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" t="s">
         <v>448</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>173</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>174</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>165</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>172</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>175</v>
       </c>
@@ -3256,25 +3407,28 @@
         <v>64</v>
       </c>
       <c r="F39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" t="s">
         <v>449</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>177</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>178</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>45</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>176</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -3291,25 +3445,28 @@
         <v>64</v>
       </c>
       <c r="F40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" t="s">
         <v>450</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>181</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>182</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>183</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>180</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>175</v>
       </c>
@@ -3326,25 +3483,28 @@
         <v>64</v>
       </c>
       <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" t="s">
         <v>451</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>185</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>186</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>45</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>184</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3361,25 +3521,28 @@
         <v>192</v>
       </c>
       <c r="F42" t="s">
+        <v>507</v>
+      </c>
+      <c r="G42" t="s">
         <v>452</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>189</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>190</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>45</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>188</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -3396,25 +3559,28 @@
         <v>192</v>
       </c>
       <c r="F43" t="s">
+        <v>507</v>
+      </c>
+      <c r="G43" t="s">
         <v>453</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>194</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>195</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>196</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>193</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3431,25 +3597,28 @@
         <v>192</v>
       </c>
       <c r="F44" t="s">
+        <v>507</v>
+      </c>
+      <c r="G44" t="s">
         <v>454</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>198</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>199</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>200</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>197</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -3466,25 +3635,28 @@
         <v>192</v>
       </c>
       <c r="F45" t="s">
+        <v>507</v>
+      </c>
+      <c r="G45" t="s">
         <v>455</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>202</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>203</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>204</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>201</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>205</v>
       </c>
@@ -3501,25 +3673,28 @@
         <v>192</v>
       </c>
       <c r="F46" t="s">
+        <v>507</v>
+      </c>
+      <c r="G46" t="s">
         <v>456</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>207</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>101</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>45</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>206</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -3536,25 +3711,28 @@
         <v>192</v>
       </c>
       <c r="F47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G47" t="s">
         <v>457</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>209</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>210</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>211</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>208</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -3571,25 +3749,28 @@
         <v>216</v>
       </c>
       <c r="F48" t="s">
+        <v>504</v>
+      </c>
+      <c r="G48" t="s">
         <v>458</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>214</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>174</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>45</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>213</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -3606,25 +3787,28 @@
         <v>223</v>
       </c>
       <c r="F49" t="s">
+        <v>507</v>
+      </c>
+      <c r="G49" t="s">
         <v>459</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>220</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>221</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>45</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>219</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -3641,25 +3825,28 @@
         <v>229</v>
       </c>
       <c r="F50" t="s">
+        <v>509</v>
+      </c>
+      <c r="G50" t="s">
         <v>460</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>226</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>227</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>45</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>225</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>205</v>
       </c>
@@ -3676,25 +3863,28 @@
         <v>229</v>
       </c>
       <c r="F51" t="s">
+        <v>509</v>
+      </c>
+      <c r="G51" t="s">
         <v>461</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>231</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>101</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>45</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>230</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3711,25 +3901,28 @@
         <v>229</v>
       </c>
       <c r="F52" t="s">
+        <v>509</v>
+      </c>
+      <c r="G52" t="s">
         <v>462</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>233</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>234</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>235</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>232</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -3746,25 +3939,28 @@
         <v>241</v>
       </c>
       <c r="F53" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" t="s">
         <v>463</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>238</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>239</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>45</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>237</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -3781,25 +3977,28 @@
         <v>241</v>
       </c>
       <c r="F54" t="s">
+        <v>236</v>
+      </c>
+      <c r="G54" t="s">
         <v>464</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>243</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>244</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>245</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>242</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -3816,25 +4015,28 @@
         <v>241</v>
       </c>
       <c r="F55" t="s">
+        <v>236</v>
+      </c>
+      <c r="G55" t="s">
         <v>465</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>247</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>248</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>249</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>246</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3851,25 +4053,28 @@
         <v>241</v>
       </c>
       <c r="F56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G56" t="s">
         <v>466</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>100</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>174</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>45</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>250</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -3886,25 +4091,28 @@
         <v>241</v>
       </c>
       <c r="F57" t="s">
+        <v>236</v>
+      </c>
+      <c r="G57" t="s">
         <v>467</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>252</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>253</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>254</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>251</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -3921,25 +4129,28 @@
         <v>241</v>
       </c>
       <c r="F58" t="s">
+        <v>236</v>
+      </c>
+      <c r="G58" t="s">
         <v>468</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>256</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>257</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>165</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>255</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -3956,25 +4167,28 @@
         <v>264</v>
       </c>
       <c r="F59" t="s">
+        <v>507</v>
+      </c>
+      <c r="G59" t="s">
         <v>469</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>260</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>261</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>262</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>259</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -3991,25 +4205,28 @@
         <v>265</v>
       </c>
       <c r="F60" t="s">
+        <v>504</v>
+      </c>
+      <c r="G60" t="s">
         <v>470</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>268</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>101</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>269</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>267</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -4026,25 +4243,28 @@
         <v>277</v>
       </c>
       <c r="F61" t="s">
+        <v>506</v>
+      </c>
+      <c r="G61" t="s">
         <v>471</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>273</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>274</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>275</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>272</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -4061,25 +4281,28 @@
         <v>283</v>
       </c>
       <c r="F62" t="s">
+        <v>504</v>
+      </c>
+      <c r="G62" t="s">
         <v>472</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>280</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>281</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>45</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>279</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -4096,25 +4319,28 @@
         <v>283</v>
       </c>
       <c r="F63" t="s">
+        <v>504</v>
+      </c>
+      <c r="G63" t="s">
         <v>473</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>285</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>286</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>287</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>284</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4131,25 +4357,28 @@
         <v>283</v>
       </c>
       <c r="F64" t="s">
+        <v>504</v>
+      </c>
+      <c r="G64" t="s">
         <v>474</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>289</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>290</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>291</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>288</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>205</v>
       </c>
@@ -4166,25 +4395,28 @@
         <v>283</v>
       </c>
       <c r="F65" t="s">
+        <v>504</v>
+      </c>
+      <c r="G65" t="s">
         <v>475</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>293</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>101</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>294</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>292</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -4201,25 +4433,28 @@
         <v>283</v>
       </c>
       <c r="F66" t="s">
+        <v>504</v>
+      </c>
+      <c r="G66" t="s">
         <v>476</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>296</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>101</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>297</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>295</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>156</v>
       </c>
@@ -4236,25 +4471,28 @@
         <v>283</v>
       </c>
       <c r="F67" t="s">
+        <v>504</v>
+      </c>
+      <c r="G67" t="s">
         <v>477</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>299</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>300</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>301</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>298</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>50</v>
       </c>
@@ -4271,25 +4509,28 @@
         <v>307</v>
       </c>
       <c r="F68" t="s">
+        <v>504</v>
+      </c>
+      <c r="G68" t="s">
         <v>478</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>304</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>305</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>45</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>303</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -4306,25 +4547,28 @@
         <v>307</v>
       </c>
       <c r="F69" t="s">
+        <v>504</v>
+      </c>
+      <c r="G69" t="s">
         <v>479</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>310</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>311</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>308</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>46</v>
       </c>
@@ -4341,25 +4585,28 @@
         <v>318</v>
       </c>
       <c r="F70" t="s">
+        <v>506</v>
+      </c>
+      <c r="G70" t="s">
         <v>480</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>314</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>315</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>316</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>313</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -4376,25 +4623,28 @@
         <v>318</v>
       </c>
       <c r="F71" t="s">
+        <v>506</v>
+      </c>
+      <c r="G71" t="s">
         <v>481</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>320</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>321</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>322</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>319</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -4411,25 +4661,28 @@
         <v>318</v>
       </c>
       <c r="F72" t="s">
+        <v>506</v>
+      </c>
+      <c r="G72" t="s">
         <v>482</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>324</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>174</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>325</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>323</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>175</v>
       </c>
@@ -4446,25 +4699,28 @@
         <v>318</v>
       </c>
       <c r="F73" t="s">
+        <v>506</v>
+      </c>
+      <c r="G73" t="s">
         <v>483</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>327</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>328</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>329</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>326</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -4481,25 +4737,28 @@
         <v>336</v>
       </c>
       <c r="F74" t="s">
+        <v>507</v>
+      </c>
+      <c r="G74" t="s">
         <v>484</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>332</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>333</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>334</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>331</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>205</v>
       </c>
@@ -4516,25 +4775,28 @@
         <v>336</v>
       </c>
       <c r="F75" t="s">
+        <v>507</v>
+      </c>
+      <c r="G75" t="s">
         <v>485</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>338</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>339</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>340</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>337</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>175</v>
       </c>
@@ -4551,25 +4813,28 @@
         <v>336</v>
       </c>
       <c r="F76" t="s">
+        <v>507</v>
+      </c>
+      <c r="G76" t="s">
         <v>486</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>342</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>343</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>344</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>341</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -4586,25 +4851,28 @@
         <v>351</v>
       </c>
       <c r="F77" t="s">
+        <v>504</v>
+      </c>
+      <c r="G77" t="s">
         <v>487</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>347</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>348</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>349</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>346</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -4621,25 +4889,28 @@
         <v>351</v>
       </c>
       <c r="F78" t="s">
+        <v>504</v>
+      </c>
+      <c r="G78" t="s">
         <v>488</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>353</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>354</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>355</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>352</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>46</v>
       </c>
@@ -4656,25 +4927,28 @@
         <v>351</v>
       </c>
       <c r="F79" t="s">
+        <v>504</v>
+      </c>
+      <c r="G79" t="s">
         <v>489</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>357</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>358</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>45</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>356</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -4691,25 +4965,28 @@
         <v>351</v>
       </c>
       <c r="F80" t="s">
+        <v>504</v>
+      </c>
+      <c r="G80" t="s">
         <v>490</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>360</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>361</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>362</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>359</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -4726,25 +5003,28 @@
         <v>351</v>
       </c>
       <c r="F81" t="s">
+        <v>504</v>
+      </c>
+      <c r="G81" t="s">
         <v>491</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>364</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>365</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>366</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>363</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -4761,25 +5041,28 @@
         <v>373</v>
       </c>
       <c r="F82" t="s">
+        <v>507</v>
+      </c>
+      <c r="G82" t="s">
         <v>492</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>370</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>371</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>45</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>369</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>119</v>
       </c>
@@ -4796,25 +5079,28 @@
         <v>373</v>
       </c>
       <c r="F83" t="s">
+        <v>507</v>
+      </c>
+      <c r="G83" t="s">
         <v>493</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>375</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>376</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>45</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>374</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -4831,25 +5117,28 @@
         <v>373</v>
       </c>
       <c r="F84" t="s">
+        <v>507</v>
+      </c>
+      <c r="G84" t="s">
         <v>494</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>378</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>379</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>165</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>377</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -4866,25 +5155,28 @@
         <v>386</v>
       </c>
       <c r="F85" t="s">
+        <v>506</v>
+      </c>
+      <c r="G85" t="s">
         <v>495</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>382</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>383</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>384</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>381</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>50</v>
       </c>
@@ -4901,25 +5193,28 @@
         <v>386</v>
       </c>
       <c r="F86" t="s">
+        <v>506</v>
+      </c>
+      <c r="G86" t="s">
         <v>496</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>388</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>389</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>45</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>387</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -4936,25 +5231,28 @@
         <v>386</v>
       </c>
       <c r="F87" t="s">
+        <v>506</v>
+      </c>
+      <c r="G87" t="s">
         <v>497</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>391</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>392</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>393</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>390</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>205</v>
       </c>
@@ -4971,25 +5269,28 @@
         <v>386</v>
       </c>
       <c r="F88" t="s">
+        <v>506</v>
+      </c>
+      <c r="G88" t="s">
         <v>498</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>395</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>396</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>397</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>394</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -5006,25 +5307,28 @@
         <v>386</v>
       </c>
       <c r="F89" t="s">
+        <v>506</v>
+      </c>
+      <c r="G89" t="s">
         <v>499</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>399</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>400</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>401</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>398</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -5041,25 +5345,28 @@
         <v>386</v>
       </c>
       <c r="F90" t="s">
+        <v>506</v>
+      </c>
+      <c r="G90" t="s">
         <v>500</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>403</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>404</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>405</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>402</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>143</v>
       </c>
@@ -5076,25 +5383,31 @@
         <v>411</v>
       </c>
       <c r="F91" t="s">
+        <v>508</v>
+      </c>
+      <c r="G91" t="s">
         <v>501</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>408</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>174</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>409</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>407</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>410</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>